--- a/Power BI/Files/Apocolypse Food Prep - Relationship Tutorial.xlsx
+++ b/Power BI/Files/Apocolypse Food Prep - Relationship Tutorial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Power BI Tutorials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Data_Analytics\Power BI\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{30AB1BB7-5C3D-45CB-B774-192A5D2E5785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{944D96A9-6934-49B1-9AE4-06AAB51E3E4E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1719ADA7-6123-4EC0-A080-39CE453BF226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Apocolypse Store" sheetId="4" r:id="rId1"/>
@@ -195,10 +195,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -516,19 +515,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22782D8F-EDC8-4AF7-925D-084A073C841E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
@@ -541,8 +540,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
@@ -555,8 +554,8 @@
         <v>13.67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
@@ -569,8 +568,8 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
@@ -583,8 +582,8 @@
         <v>32.450000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
@@ -597,8 +596,8 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
@@ -611,8 +610,8 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" t="s">
@@ -625,8 +624,8 @@
         <v>13.41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>10007</v>
       </c>
       <c r="B8" t="s">
@@ -639,8 +638,8 @@
         <v>30.59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>10008</v>
       </c>
       <c r="B9" t="s">
@@ -653,8 +652,8 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>10009</v>
       </c>
       <c r="B10" t="s">
@@ -667,8 +666,8 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10010</v>
       </c>
       <c r="B11" t="s">
@@ -691,19 +690,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB07A48-6B1F-4096-A29B-353411504FDA}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -723,7 +722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>_xlfn.XLOOKUP(B2,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -744,7 +743,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>_xlfn.XLOOKUP(B3,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -765,7 +764,7 @@
         <v>44563</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>_xlfn.XLOOKUP(B4,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -786,7 +785,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>_xlfn.XLOOKUP(B5,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -807,7 +806,7 @@
         <v>44565</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>_xlfn.XLOOKUP(B6,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -828,7 +827,7 @@
         <v>44566</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>_xlfn.XLOOKUP(B7,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -849,7 +848,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>_xlfn.XLOOKUP(B8,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -870,7 +869,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>_xlfn.XLOOKUP(B9,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -891,7 +890,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>_xlfn.XLOOKUP(B10,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -912,7 +911,7 @@
         <v>44570</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>_xlfn.XLOOKUP(B11,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -933,7 +932,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>_xlfn.XLOOKUP(B12,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -954,7 +953,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>_xlfn.XLOOKUP(B13,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -975,7 +974,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>_xlfn.XLOOKUP(B14,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -996,7 +995,7 @@
         <v>44574</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>_xlfn.XLOOKUP(B15,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -1017,7 +1016,7 @@
         <v>44575</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>_xlfn.XLOOKUP(B16,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -1038,7 +1037,7 @@
         <v>44576</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>_xlfn.XLOOKUP(B17,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -1059,7 +1058,7 @@
         <v>44577</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>_xlfn.XLOOKUP(B18,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1080,7 +1079,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>_xlfn.XLOOKUP(B19,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1101,7 +1100,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>_xlfn.XLOOKUP(B20,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -1122,7 +1121,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>_xlfn.XLOOKUP(B21,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -1143,7 +1142,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>_xlfn.XLOOKUP(B22,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -1164,7 +1163,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>_xlfn.XLOOKUP(B23,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1185,7 +1184,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>_xlfn.XLOOKUP(B24,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -1206,7 +1205,7 @@
         <v>44584</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>_xlfn.XLOOKUP(B25,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -1227,7 +1226,7 @@
         <v>44585</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>_xlfn.XLOOKUP(B26,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -1248,7 +1247,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>_xlfn.XLOOKUP(B27,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1269,7 +1268,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>_xlfn.XLOOKUP(B28,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -1290,7 +1289,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>_xlfn.XLOOKUP(B29,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -1311,7 +1310,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>_xlfn.XLOOKUP(B30,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -1332,7 +1331,7 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>_xlfn.XLOOKUP(B31,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1353,7 +1352,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>_xlfn.XLOOKUP(B32,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1374,7 +1373,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>_xlfn.XLOOKUP(B33,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1395,7 +1394,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>_xlfn.XLOOKUP(B34,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -1416,7 +1415,7 @@
         <v>44594</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>_xlfn.XLOOKUP(B35,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -1437,7 +1436,7 @@
         <v>44595</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>_xlfn.XLOOKUP(B36,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -1458,7 +1457,7 @@
         <v>44596</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>_xlfn.XLOOKUP(B37,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1479,7 +1478,7 @@
         <v>44597</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>_xlfn.XLOOKUP(B38,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -1500,7 +1499,7 @@
         <v>44598</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>_xlfn.XLOOKUP(B39,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -1521,7 +1520,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>_xlfn.XLOOKUP(B40,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -1542,7 +1541,7 @@
         <v>44600</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>_xlfn.XLOOKUP(B41,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1563,7 +1562,7 @@
         <v>44601</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>_xlfn.XLOOKUP(B42,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -1584,7 +1583,7 @@
         <v>44602</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>_xlfn.XLOOKUP(B43,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -1605,7 +1604,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>_xlfn.XLOOKUP(B44,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -1626,7 +1625,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>_xlfn.XLOOKUP(B45,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1647,7 +1646,7 @@
         <v>44605</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>_xlfn.XLOOKUP(B46,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -1668,7 +1667,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>_xlfn.XLOOKUP(B47,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -1689,7 +1688,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>_xlfn.XLOOKUP(B48,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -1710,7 +1709,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>_xlfn.XLOOKUP(B49,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1731,7 +1730,7 @@
         <v>44609</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>_xlfn.XLOOKUP(B50,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -1752,7 +1751,7 @@
         <v>44610</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>_xlfn.XLOOKUP(B51,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -1773,7 +1772,7 @@
         <v>44611</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>_xlfn.XLOOKUP(B52,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -1794,7 +1793,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>_xlfn.XLOOKUP(B53,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1815,7 +1814,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>_xlfn.XLOOKUP(B54,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -1836,7 +1835,7 @@
         <v>44614</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>_xlfn.XLOOKUP(B55,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -1857,7 +1856,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>_xlfn.XLOOKUP(B56,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -1878,7 +1877,7 @@
         <v>44616</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>_xlfn.XLOOKUP(B57,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1899,7 +1898,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>_xlfn.XLOOKUP(B58,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -1920,7 +1919,7 @@
         <v>44618</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>_xlfn.XLOOKUP(B59,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -1941,7 +1940,7 @@
         <v>44619</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>_xlfn.XLOOKUP(B60,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -1962,7 +1961,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>_xlfn.XLOOKUP(B61,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -1983,7 +1982,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>_xlfn.XLOOKUP(B62,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -2004,7 +2003,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>_xlfn.XLOOKUP(B63,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -2025,7 +2024,7 @@
         <v>44623</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>_xlfn.XLOOKUP(B64,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -2046,7 +2045,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>_xlfn.XLOOKUP(B65,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -2067,7 +2066,7 @@
         <v>44625</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>_xlfn.XLOOKUP(B66,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -2088,7 +2087,7 @@
         <v>44626</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>_xlfn.XLOOKUP(B67,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -2109,7 +2108,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>_xlfn.XLOOKUP(B68,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -2130,7 +2129,7 @@
         <v>44628</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>_xlfn.XLOOKUP(B69,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>9876</v>
@@ -2151,7 +2150,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>_xlfn.XLOOKUP(B70,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -2172,7 +2171,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>_xlfn.XLOOKUP(B71,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1357</v>
@@ -2193,7 +2192,7 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>_xlfn.XLOOKUP(B72,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -2214,7 +2213,7 @@
         <v>44632</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>_xlfn.XLOOKUP(B73,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -2235,7 +2234,7 @@
         <v>44633</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>_xlfn.XLOOKUP(B74,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>1234</v>
@@ -2256,7 +2255,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>_xlfn.XLOOKUP(B75,'Customer Information'!B:B,'Customer Information'!A:A)</f>
         <v>2468</v>
@@ -2286,19 +2285,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF10526D-2B8A-4364-A7CF-58A5865D7E38}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1234</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>70571</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9876</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>12546</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2468</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>93873</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1357</v>
       </c>
